--- a/RUDN/Importance/Varible_muatal_class_in_Eastern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Eastern Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t>Country_code</t>
   </si>
@@ -22,24 +22,24 @@
     <t>Forest area (sq. km)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+    <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
@@ -67,30 +67,30 @@
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
@@ -112,69 +112,75 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
@@ -187,117 +193,111 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -331,916 +331,919 @@
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Age population, age 12, female, interpolated</t>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Children with fever receiving antimalarial drugs (% of children under age 5 with fever)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Use of Intermittent Preventive Treatment of malaria, 2+ doses of SP/Fansidar (% of pregnant women)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Use of insecticide-treated bed nets (% of under-5 population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Prevalence of syphilis (% of women attending antenatal care)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Children with fever receiving antimalarial drugs (% of children under age 5 with fever)</t>
-  </si>
-  <si>
-    <t>Use of Intermittent Preventive Treatment of malaria, 2+ doses of SP/Fansidar (% of pregnant women)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Use of insecticide-treated bed nets (% of under-5 population)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
     <t>Region_code</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9454799929581559</v>
+        <v>0.9477078552571199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1638,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.936078145097998</v>
+        <v>0.9454799929581559</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1646,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9342917528529848</v>
+        <v>0.9404980143711918</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1654,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9327805684184518</v>
+        <v>0.9386527952796382</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1662,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9235288415550769</v>
+        <v>0.9273866431790785</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1670,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9219674353621727</v>
+        <v>0.9153136906928672</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1678,7 +1681,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9072441349026279</v>
+        <v>0.9067253726191595</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8970703432076756</v>
+        <v>0.8811167662047239</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1742,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8519821987289515</v>
+        <v>0.8517757058753999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1750,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8407303904826287</v>
+        <v>0.8456697458454359</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1758,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8397991243720784</v>
+        <v>0.8428776447862212</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1766,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8381183312346183</v>
+        <v>0.8407303904826287</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1774,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8370006371763272</v>
+        <v>0.828476175272278</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1782,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.828476175272278</v>
+        <v>0.8280987892980061</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1790,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8280987892980061</v>
+        <v>0.8272779196996216</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1806,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8267751544909741</v>
+        <v>0.8240574490080992</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1814,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8188150156340324</v>
+        <v>0.8128239656926546</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1846,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.809483667492874</v>
+        <v>0.8100654386628805</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1870,7 +1873,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8071062995471987</v>
+        <v>0.8064000560732616</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1878,7 +1881,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8064000560732616</v>
+        <v>0.8063210514143677</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1886,7 +1889,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8063210514143677</v>
+        <v>0.8056390006083745</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1894,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8056390006083745</v>
+        <v>0.8041763065519942</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1902,7 +1905,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8044779656771825</v>
+        <v>0.8023402856241739</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1910,7 +1913,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8023402856241739</v>
+        <v>0.8009264417961397</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1918,7 +1921,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8009264417961397</v>
+        <v>0.8006886053801432</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1934,7 +1937,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8006886053801432</v>
+        <v>0.7998140795884841</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1942,7 +1945,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7998140795884841</v>
+        <v>0.7973935608673848</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1950,7 +1953,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7973935608673848</v>
+        <v>0.7972882261942515</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1958,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7972882261942515</v>
+        <v>0.793171179667211</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1966,7 +1969,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7938053709041384</v>
+        <v>0.7926741491846814</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1974,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.793171179667211</v>
+        <v>0.7874273692148215</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1982,7 +1985,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7874273692148215</v>
+        <v>0.7874052005840553</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1990,7 +1993,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7874052005840553</v>
+        <v>0.7861330941083289</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1998,7 +2001,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7861330941083289</v>
+        <v>0.7854281411043345</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2014,7 +2017,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.776216648071405</v>
+        <v>0.7779318121002359</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2022,7 +2025,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7741829769564941</v>
+        <v>0.7746165303926333</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2030,7 +2033,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.774066954216037</v>
+        <v>0.7741829769564941</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2038,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7733314349831406</v>
+        <v>0.774066954216037</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2046,7 +2049,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7719293134503029</v>
+        <v>0.7738734030811012</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2054,7 +2057,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7717549987379475</v>
+        <v>0.7733314349831406</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2062,7 +2065,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7712960328347447</v>
+        <v>0.7719293134503029</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2070,7 +2073,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7707202627226819</v>
+        <v>0.7717549987379475</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2078,7 +2081,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7696869359583527</v>
+        <v>0.7712960328347447</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2086,7 +2089,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7681350241979916</v>
+        <v>0.7696869359583527</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2094,7 +2097,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7680480687075226</v>
+        <v>0.7695890410032249</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2102,7 +2105,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7678345868459844</v>
+        <v>0.7680480687075226</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2126,7 +2129,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7662195045756939</v>
+        <v>0.7654653567627225</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2158,7 +2161,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7617235105978168</v>
+        <v>0.761656928800488</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2166,7 +2169,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.761656928800488</v>
+        <v>0.7587863233265044</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2174,7 +2177,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7584004776562379</v>
+        <v>0.7561328431283552</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2182,7 +2185,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7576991911331754</v>
+        <v>0.755501201796704</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2190,7 +2193,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.755501201796704</v>
+        <v>0.7525570466382174</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2198,7 +2201,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7525570466382174</v>
+        <v>0.7521185652155042</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2206,7 +2209,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7521185652155042</v>
+        <v>0.7502933834301782</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2214,7 +2217,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7517237290580279</v>
+        <v>0.7493026856778466</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2222,7 +2225,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7502933834301782</v>
+        <v>0.7488385316665056</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2230,7 +2233,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7488385316665056</v>
+        <v>0.747920697709318</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2238,7 +2241,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.747920697709318</v>
+        <v>0.7477624660436577</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2246,7 +2249,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7477624660436577</v>
+        <v>0.7459496703308086</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2254,7 +2257,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7459496703308086</v>
+        <v>0.7457787261442546</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2262,7 +2265,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.745532321740189</v>
+        <v>0.7448859093290707</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2278,7 +2281,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7412843324243263</v>
+        <v>0.7419660950878857</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2286,7 +2289,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7411071914946603</v>
+        <v>0.7412843324243263</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2294,7 +2297,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7410247486084958</v>
+        <v>0.7405658607413426</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2302,7 +2305,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7405658607413426</v>
+        <v>0.7402022141190947</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2350,7 +2353,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7313581816691268</v>
+        <v>0.7330054478494432</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2358,7 +2361,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7309988981291324</v>
+        <v>0.7313581816691268</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2454,7 +2457,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.7193923788268413</v>
+        <v>0.718934524703877</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2462,7 +2465,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.718934524703877</v>
+        <v>0.7185959115824585</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2470,7 +2473,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.7187216889487373</v>
+        <v>0.7174378927547918</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2478,7 +2481,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.7185959115824585</v>
+        <v>0.7172166395897035</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2486,7 +2489,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.7174378927547918</v>
+        <v>0.7168002713252801</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2494,7 +2497,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7168002713252801</v>
+        <v>0.7167087491102495</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2502,7 +2505,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7167087491102495</v>
+        <v>0.7150035141938009</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2510,7 +2513,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.716585508944803</v>
+        <v>0.7145917458135869</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2518,7 +2521,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.7161347359132579</v>
+        <v>0.7129563023229397</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2526,7 +2529,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.7154557008630626</v>
+        <v>0.7128322043255739</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2534,7 +2537,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.7148554594063163</v>
+        <v>0.7127407687363656</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2542,7 +2545,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.7145917458135869</v>
+        <v>0.7120321281778355</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2550,7 +2553,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.7128322043255739</v>
+        <v>0.7117493473351399</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2558,7 +2561,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.7120321281778355</v>
+        <v>0.709576855637664</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2566,7 +2569,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7117493473351399</v>
+        <v>0.708860316609307</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2574,7 +2577,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.7114480066969973</v>
+        <v>0.7084780749217761</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2582,7 +2585,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.7113651821888571</v>
+        <v>0.7082843832228627</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2590,7 +2593,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.709576855637664</v>
+        <v>0.7022192605068052</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2598,7 +2601,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.708860316609307</v>
+        <v>0.7016414715744448</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2606,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7084780749217761</v>
+        <v>0.7013947618021232</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2614,7 +2617,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.7076846561525474</v>
+        <v>0.7013030221266972</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2622,7 +2625,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.7022192605068052</v>
+        <v>0.7006415373638126</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2630,7 +2633,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.7019417712056961</v>
+        <v>0.7004334755797534</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2638,7 +2641,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.7016414715744448</v>
+        <v>0.7003581897028848</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2646,7 +2649,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.7013947618021232</v>
+        <v>0.6984786938833878</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2654,7 +2657,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.7006415373638126</v>
+        <v>0.6984786938833878</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2662,7 +2665,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.6984786938833878</v>
+        <v>0.6977997944434813</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2670,7 +2673,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6984786938833878</v>
+        <v>0.6972344141436742</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2678,7 +2681,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6981943685823928</v>
+        <v>0.6971593962745031</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2686,7 +2689,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6977997944434813</v>
+        <v>0.6968804730256377</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2694,7 +2697,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6971593962745031</v>
+        <v>0.6958332713596405</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2702,7 +2705,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.6968804730256377</v>
+        <v>0.6924756894215123</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2710,7 +2713,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6951868589485222</v>
+        <v>0.6915774448865353</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2718,7 +2721,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.6924756894215123</v>
+        <v>0.6913890726363052</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2726,7 +2729,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.6916717699552366</v>
+        <v>0.6903142210690392</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2734,7 +2737,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6915774448865353</v>
+        <v>0.6901567314492478</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2742,7 +2745,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.6913890726363052</v>
+        <v>0.6897291604139355</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2750,7 +2753,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.6903142210690392</v>
+        <v>0.6884406463164345</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2758,7 +2761,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.6897291604139355</v>
+        <v>0.6879248660272672</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2766,7 +2769,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.6886674107076929</v>
+        <v>0.6879098231424201</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2774,7 +2777,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.6879248660272672</v>
+        <v>0.6843218901119201</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2782,7 +2785,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6843218901119201</v>
+        <v>0.6837156567561034</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2790,7 +2793,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.6837156567561034</v>
+        <v>0.682036567840032</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2798,7 +2801,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.682036567840032</v>
+        <v>0.6778183382256997</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2806,7 +2809,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.6793266338516424</v>
+        <v>0.676521073741122</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2814,7 +2817,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.676521073741122</v>
+        <v>0.6727007403031651</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2822,7 +2825,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.6745187090203986</v>
+        <v>0.6715662112535521</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2830,7 +2833,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.6720168427528808</v>
+        <v>0.6699288107094756</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2838,7 +2841,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.6699288107094756</v>
+        <v>0.6697593350997306</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2846,7 +2849,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6697593350997306</v>
+        <v>0.6685361507916137</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2854,7 +2857,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.6667155633713089</v>
+        <v>0.6680850295540868</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2862,7 +2865,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.6665007192108634</v>
+        <v>0.6667155633713089</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2870,7 +2873,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.6601982796969483</v>
+        <v>0.6637507188406435</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2878,7 +2881,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.6594111381009162</v>
+        <v>0.6631453311344984</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2886,7 +2889,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.6589016546628836</v>
+        <v>0.6594111381009162</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2894,7 +2897,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.6577277161454518</v>
+        <v>0.6589016546628836</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2910,7 +2913,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6574360380459852</v>
+        <v>0.6561006265758615</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2918,7 +2921,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.6561006265758615</v>
+        <v>0.6540851927913722</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2926,7 +2929,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6548028210517089</v>
+        <v>0.6496510178638095</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2934,7 +2937,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6545727301384632</v>
+        <v>0.6468952343242607</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2942,7 +2945,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6509196169986093</v>
+        <v>0.6464479406380048</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2950,7 +2953,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6468952343242607</v>
+        <v>0.6457371775397622</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2958,7 +2961,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6457371775397622</v>
+        <v>0.6426390408631373</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2966,7 +2969,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.6440878134276875</v>
+        <v>0.6404780408773871</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2974,7 +2977,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.6426390408631373</v>
+        <v>0.6392639766930033</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2982,7 +2985,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6404780408773871</v>
+        <v>0.6390528686627499</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2990,7 +2993,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.6392639766930033</v>
+        <v>0.6389834411501183</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2998,7 +3001,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6389834411501183</v>
+        <v>0.6375228441508909</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3054,7 +3057,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6286133535016538</v>
+        <v>0.6283900641367921</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3062,7 +3065,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.6283900641367921</v>
+        <v>0.6283654010989401</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3086,7 +3089,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.6261806425773635</v>
+        <v>0.6263500171900958</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3094,7 +3097,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6251736722380457</v>
+        <v>0.6261812947884058</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3102,7 +3105,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6243356019354256</v>
+        <v>0.6258608118429598</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3110,7 +3113,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.6234004140733853</v>
+        <v>0.6251736722380457</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3118,7 +3121,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.6199231251667923</v>
+        <v>0.6234004140733853</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3126,7 +3129,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.6190250855035815</v>
+        <v>0.6231110095343628</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3134,7 +3137,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.618004962320726</v>
+        <v>0.6199231251667923</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3142,7 +3145,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.6162989930275118</v>
+        <v>0.6183644458532167</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3166,7 +3169,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.6133012401276969</v>
+        <v>0.6125882844966444</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3174,7 +3177,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.6069111858124145</v>
+        <v>0.6088261559721453</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3190,7 +3193,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.6036430082774236</v>
+        <v>0.6005267819312796</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3198,7 +3201,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.6005267819312796</v>
+        <v>0.6001790681819954</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3206,7 +3209,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.6005166594522986</v>
+        <v>0.6000088391874017</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3214,7 +3217,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6000088391874017</v>
+        <v>0.5985461900621487</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3230,7 +3233,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.5864923941848235</v>
+        <v>0.5864246033810974</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3238,7 +3241,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5847384570993057</v>
+        <v>0.5801465802909149</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3246,7 +3249,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5844586569738881</v>
+        <v>0.5776135558567574</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3254,7 +3257,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5795447615989737</v>
+        <v>0.5775533674058944</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3262,7 +3265,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5754458558487678</v>
+        <v>0.5728476370740783</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3270,7 +3273,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5662458177392924</v>
+        <v>0.5713443748236349</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3278,7 +3281,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.5596288184419342</v>
+        <v>0.5674720907085893</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3286,7 +3289,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.559046195649801</v>
+        <v>0.5672711679500231</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3294,7 +3297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.5573576690046145</v>
+        <v>0.5664244383221615</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3302,7 +3305,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5556258997156058</v>
+        <v>0.5641076580607169</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3310,7 +3313,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5553569525128093</v>
+        <v>0.5573576690046145</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3318,7 +3321,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5545721437732285</v>
+        <v>0.5556258997156058</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3326,7 +3329,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.5545071301507056</v>
+        <v>0.5551950868069839</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3334,7 +3337,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5541431902606297</v>
+        <v>0.5545071301507056</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3342,7 +3345,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.553080846887267</v>
+        <v>0.5541431902606297</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3350,7 +3353,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5527327193308018</v>
+        <v>0.5503364731135516</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3358,7 +3361,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5511941749189542</v>
+        <v>0.5489317314800404</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3366,7 +3369,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5463390959998518</v>
+        <v>0.545407816983275</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3374,7 +3377,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5450686198777235</v>
+        <v>0.5394500313508397</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3382,7 +3385,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5394500313508397</v>
+        <v>0.5358070080019175</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3390,7 +3393,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5358070080019175</v>
+        <v>0.5356093212742583</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3398,7 +3401,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5356093212742583</v>
+        <v>0.5347695334550093</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3406,7 +3409,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5353340076273176</v>
+        <v>0.5338391384503438</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3414,7 +3417,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5347695334550093</v>
+        <v>0.533649813976772</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3422,7 +3425,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.533649813976772</v>
+        <v>0.532564201285868</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3430,7 +3433,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.5331208954647906</v>
+        <v>0.5323934263400409</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3438,7 +3441,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.5329110277258768</v>
+        <v>0.5311320549246317</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3446,7 +3449,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5328633314742801</v>
+        <v>0.5309308441743803</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3454,7 +3457,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.532564201285868</v>
+        <v>0.5298928898775677</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3462,7 +3465,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.5325269403324921</v>
+        <v>0.5290733990164516</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3470,7 +3473,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.5298928898775677</v>
+        <v>0.5286792302152934</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3494,7 +3497,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5219006651401827</v>
+        <v>0.5163357356526856</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3502,7 +3505,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5193290992528738</v>
+        <v>0.5158671309545286</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3510,7 +3513,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5188465287217261</v>
+        <v>0.5143549566887762</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3534,7 +3537,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5127101515327588</v>
+        <v>0.5116168019612077</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3542,7 +3545,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.5116168019612077</v>
+        <v>0.5109436832137615</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3550,7 +3553,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5080244900092956</v>
+        <v>0.5081505711381991</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3558,7 +3561,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5039649293029171</v>
+        <v>0.5080930350263053</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3566,7 +3569,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.5020323711609969</v>
+        <v>0.506311241113012</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3574,7 +3577,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5020216688408721</v>
+        <v>0.5049792921524165</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3582,7 +3585,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5000399714940813</v>
+        <v>0.5002671014732101</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3590,7 +3593,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4989024873586536</v>
+        <v>0.5001454229795879</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3598,7 +3601,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4986394345884473</v>
+        <v>0.499930713469567</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3606,7 +3609,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4971268677701344</v>
+        <v>0.4966276764448814</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3614,7 +3617,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4967149844519219</v>
+        <v>0.4909620469711908</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3622,7 +3625,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4966276764448814</v>
+        <v>0.4847552774879265</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3630,7 +3633,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4964639650034988</v>
+        <v>0.4843690962045315</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3638,7 +3641,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4961057679018701</v>
+        <v>0.4832390450437982</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3646,7 +3649,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.4960780437757095</v>
+        <v>0.4823207957466256</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3654,7 +3657,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4952939630332838</v>
+        <v>0.4822559678964506</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3662,7 +3665,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.4906869264715481</v>
+        <v>0.4805741935319852</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3670,7 +3673,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4870746147794625</v>
+        <v>0.480151574338566</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3678,7 +3681,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.4868035738698224</v>
+        <v>0.4795405422880132</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3686,7 +3689,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.4843690962045315</v>
+        <v>0.4785384120165626</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3694,7 +3697,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.4837914978187514</v>
+        <v>0.4783904219235897</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3702,7 +3705,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4823207957466256</v>
+        <v>0.473595474749986</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3710,7 +3713,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.481724465264187</v>
+        <v>0.4724146495682191</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3718,7 +3721,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4816045623688865</v>
+        <v>0.470597705909924</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3726,7 +3729,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.4812899579696484</v>
+        <v>0.4702079684546965</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3734,7 +3737,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4805741935319852</v>
+        <v>0.4693985836616705</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3742,7 +3745,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.4780820284446219</v>
+        <v>0.4685842868913246</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3750,7 +3753,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.4754282284094522</v>
+        <v>0.4667302079178763</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3758,7 +3761,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.4724283011250845</v>
+        <v>0.4637489838339124</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3766,7 +3769,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.4716713748489751</v>
+        <v>0.4628796123634058</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3774,7 +3777,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.4702121663483336</v>
+        <v>0.4627562451775935</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3782,7 +3785,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.4700049014134886</v>
+        <v>0.4625048625732697</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3790,7 +3793,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4692688948970902</v>
+        <v>0.462200594964647</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3798,7 +3801,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.4689873603464407</v>
+        <v>0.4620830699458363</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3806,7 +3809,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.4663319010103852</v>
+        <v>0.4619727235106317</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3814,7 +3817,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4639915865714002</v>
+        <v>0.4617119665058462</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3822,7 +3825,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4627562451775935</v>
+        <v>0.458707525490841</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3830,7 +3833,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4625048625732697</v>
+        <v>0.4561818563069757</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3838,7 +3841,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.462200594964647</v>
+        <v>0.4548978002280688</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3846,7 +3849,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4619727235106317</v>
+        <v>0.4548418151508327</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3854,7 +3857,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4615092401302565</v>
+        <v>0.4541226500140032</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3862,7 +3865,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4595350247391234</v>
+        <v>0.4530590652060928</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3870,7 +3873,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.458707525490841</v>
+        <v>0.4528807077446726</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3878,7 +3881,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4569815634024155</v>
+        <v>0.4514348630507239</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3886,7 +3889,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4558485857822951</v>
+        <v>0.4502392186240474</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3894,7 +3897,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4530590652060928</v>
+        <v>0.4493297500198401</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3902,7 +3905,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4514348630507239</v>
+        <v>0.4486099186335482</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3910,7 +3913,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4502392186240474</v>
+        <v>0.4477702599447888</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3926,7 +3929,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4477702599447888</v>
+        <v>0.4439211246752157</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3934,7 +3937,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4445910813582417</v>
+        <v>0.4430374277038969</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3942,7 +3945,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4444234928872846</v>
+        <v>0.4407464044348846</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3950,7 +3953,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.4407464044348846</v>
+        <v>0.4389078911794004</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3958,7 +3961,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.4391988820030694</v>
+        <v>0.4374888411456459</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3966,7 +3969,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.4367694358231116</v>
+        <v>0.4372482233240991</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3974,7 +3977,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.4366688067580033</v>
+        <v>0.4356479091993095</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3982,7 +3985,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.4334337322952093</v>
+        <v>0.4306839779110199</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3990,7 +3993,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4332086449164514</v>
+        <v>0.4281655165633387</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3998,7 +4001,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.4323750428098871</v>
+        <v>0.4243601124287</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4006,7 +4009,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.4309267600804088</v>
+        <v>0.4234792337630191</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4014,7 +4017,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.4289654688817546</v>
+        <v>0.4228943248878478</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4022,7 +4025,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.4281655165633387</v>
+        <v>0.4227547444183393</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4030,7 +4033,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.4264565230464876</v>
+        <v>0.4198419298590625</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4038,7 +4041,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.4243601124287</v>
+        <v>0.4189151764048507</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4046,7 +4049,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.4234792337630191</v>
+        <v>0.4046358556176219</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4054,7 +4057,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.4196803267562834</v>
+        <v>0.4042430013406229</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4062,7 +4065,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.4075127616818772</v>
+        <v>0.3982308690368139</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4070,7 +4073,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.4046060170292942</v>
+        <v>0.3949803053704852</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4078,7 +4081,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.403316168472732</v>
+        <v>0.3902191322938893</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4086,7 +4089,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.4005968498193377</v>
+        <v>0.3886710721814108</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4094,7 +4097,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4005723469630191</v>
+        <v>0.3824040600788965</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4102,7 +4105,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3869763827655064</v>
+        <v>0.3821604813493151</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4110,7 +4113,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.3843289625700936</v>
+        <v>0.3809565821035914</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4118,7 +4121,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3781543950414208</v>
+        <v>0.3787658197835648</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4126,7 +4129,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3736219055359555</v>
+        <v>0.3737506610731751</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4142,7 +4145,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3725038807309846</v>
+        <v>0.3720936031038664</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4150,7 +4153,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3722348531991428</v>
+        <v>0.3714465245009311</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4158,7 +4161,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3692468315382009</v>
+        <v>0.3711636003929206</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4166,7 +4169,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3633978779294975</v>
+        <v>0.3656362082150781</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4174,7 +4177,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3628529344781228</v>
+        <v>0.3641030519999011</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4182,7 +4185,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.3587195176208142</v>
+        <v>0.3633978779294975</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4190,7 +4193,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3527782447433789</v>
+        <v>0.3633932582638129</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4198,7 +4201,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3474865109605751</v>
+        <v>0.3575670352153417</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4206,7 +4209,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.3447826910875607</v>
+        <v>0.355903177265547</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4214,7 +4217,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.3430218862634635</v>
+        <v>0.3557308411617326</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4222,7 +4225,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.3424046742056743</v>
+        <v>0.3508061766506743</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4230,7 +4233,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.3393146743111164</v>
+        <v>0.3427948188179923</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4246,7 +4249,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3378687886101823</v>
+        <v>0.3379948625176352</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4254,7 +4257,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3375833751825845</v>
+        <v>0.3350404018090529</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4262,7 +4265,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3347377147541259</v>
+        <v>0.3343370119699385</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4270,7 +4273,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3337899537895341</v>
+        <v>0.3316363661729436</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4278,7 +4281,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.3299081647986981</v>
+        <v>0.3301036690546422</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4294,7 +4297,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.3282684536986942</v>
+        <v>0.3275096871914618</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4302,7 +4305,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.3275096871914618</v>
+        <v>0.3182966795753857</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4310,7 +4313,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3248025792039206</v>
+        <v>0.3180068647735272</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4318,7 +4321,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.3220192153534429</v>
+        <v>0.3174068629718112</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4326,7 +4329,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3218008385243443</v>
+        <v>0.3157494741019391</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4334,7 +4337,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.3191384356971236</v>
+        <v>0.3145092313075397</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4342,7 +4345,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.317642707561351</v>
+        <v>0.3133645481820495</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4350,7 +4353,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.3162950718147486</v>
+        <v>0.3101034509554705</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4358,7 +4361,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3145924709492918</v>
+        <v>0.3085892830746111</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4366,7 +4369,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.3105953896803553</v>
+        <v>0.3001266979402843</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4374,7 +4377,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.3101034509554705</v>
+        <v>0.2950887990576889</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4382,7 +4385,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3068341280672431</v>
+        <v>0.2915520987598279</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4390,7 +4393,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.3047055419006008</v>
+        <v>0.2914927527584819</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4398,7 +4401,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.3029930647875776</v>
+        <v>0.2914195152706947</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4406,7 +4409,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2988090748495902</v>
+        <v>0.2905493586439334</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4414,7 +4417,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2953680353790729</v>
+        <v>0.2893346812526816</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4422,7 +4425,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2901428273006255</v>
+        <v>0.289057189808287</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4430,7 +4433,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.287490178552041</v>
+        <v>0.2796272484510849</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4438,7 +4441,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2864590433224037</v>
+        <v>0.2783101302879811</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4446,7 +4449,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2798465743418133</v>
+        <v>0.2762814088578731</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4454,7 +4457,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.279592685171268</v>
+        <v>0.2759178436856595</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4462,7 +4465,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2783786708536526</v>
+        <v>0.2752293282372897</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4470,7 +4473,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2783101302879811</v>
+        <v>0.2747790694686745</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4478,7 +4481,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2782434552901216</v>
+        <v>0.268132706272395</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4486,7 +4489,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2771606012753001</v>
+        <v>0.263282350573931</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4494,7 +4497,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2759178436856595</v>
+        <v>0.2620433310588519</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4502,7 +4505,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2753286588340813</v>
+        <v>0.257128592825411</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4510,7 +4513,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2739978656796533</v>
+        <v>0.2537224071120299</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4518,7 +4521,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2716180614615924</v>
+        <v>0.2525025960212488</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4526,7 +4529,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2617947569552903</v>
+        <v>0.2501476083004692</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4534,7 +4537,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2595948186202064</v>
+        <v>0.2474062417401437</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4542,7 +4545,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2579478558537034</v>
+        <v>0.2386144279384028</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4550,7 +4553,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.256166895937336</v>
+        <v>0.2346690514794958</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4558,7 +4561,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2515415498174074</v>
+        <v>0.2316653964516828</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4566,7 +4569,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2484610027248111</v>
+        <v>0.2300112097961513</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4574,7 +4577,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2422825658030217</v>
+        <v>0.2296666772469107</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4582,7 +4585,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2408390554405173</v>
+        <v>0.2292706954403956</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4590,7 +4593,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2371844908946221</v>
+        <v>0.2249357383512409</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4598,7 +4601,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2358492323701309</v>
+        <v>0.2242783417281295</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4606,7 +4609,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2279884755516912</v>
+        <v>0.2224367876640385</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4614,7 +4617,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2274907973979285</v>
+        <v>0.2143748731930626</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4622,7 +4625,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2270283130958324</v>
+        <v>0.2132145858613361</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4630,7 +4633,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.224412465045746</v>
+        <v>0.2050588176406736</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4638,7 +4641,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2235721705571767</v>
+        <v>0.202072882489118</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4646,7 +4649,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.2131369087645691</v>
+        <v>0.2003193027764778</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4654,7 +4657,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2110741165870338</v>
+        <v>0.1998362246988366</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4662,7 +4665,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2066877446428952</v>
+        <v>0.1964373864989144</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4670,7 +4673,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1984705897664334</v>
+        <v>0.1936982007548242</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4678,7 +4681,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1970549601518621</v>
+        <v>0.1874235754044344</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4686,7 +4689,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1884008105101482</v>
+        <v>0.1870833573139707</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4694,7 +4697,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1875576218766888</v>
+        <v>0.1869262157831835</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4710,7 +4713,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1834085149587876</v>
+        <v>0.1860600476270795</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4718,7 +4721,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.181340762245602</v>
+        <v>0.1814093991411798</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4726,7 +4729,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.179987837079701</v>
+        <v>0.1813682513877182</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4734,7 +4737,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1791457915735659</v>
+        <v>0.1783333371482034</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4742,7 +4745,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1789007530432296</v>
+        <v>0.1776328189703669</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4750,7 +4753,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1781806779741923</v>
+        <v>0.1765651881654362</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4758,7 +4761,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.174826540732796</v>
+        <v>0.1763478076770324</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4766,7 +4769,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1741926322633411</v>
+        <v>0.17142466354762</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4774,7 +4777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1734038723075748</v>
+        <v>0.1710176521716296</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4782,7 +4785,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1630117575939436</v>
+        <v>0.1680992441847649</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4790,7 +4793,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1574117273355187</v>
+        <v>0.1671055517751818</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4798,7 +4801,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1569077064121362</v>
+        <v>0.165398258347486</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4806,7 +4809,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1561389119068612</v>
+        <v>0.1622137534330812</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4814,7 +4817,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1525117309980861</v>
+        <v>0.1450810712235433</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4822,7 +4825,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1489824285474808</v>
+        <v>0.1392091095657348</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4830,7 +4833,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1465701247889464</v>
+        <v>0.1313552917882752</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4838,7 +4841,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.143929264201867</v>
+        <v>0.1289922700723143</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4846,7 +4849,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1395550591001817</v>
+        <v>0.1257795262391035</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4854,7 +4857,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.138541227085113</v>
+        <v>0.1248860062761437</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4862,7 +4865,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1352003626567395</v>
+        <v>0.1179365707144018</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4870,7 +4873,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.118089447404786</v>
+        <v>0.1092690026135927</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4878,7 +4881,15 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.02179054747681031</v>
+        <v>0.08357092882428252</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0.05187859237431214</v>
       </c>
     </row>
   </sheetData>
